--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Josef_Roth/Hermann_Josef_Roth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Josef_Roth/Hermann_Josef_Roth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Josef Ludwig Roth, né le 2 janvier 1938 à Montabaur, est un naturaliste, théologien, historien de la culture et prêtre cistercien allemand, spécialiste des mouvements réformateurs monastiques émanant des cisterciens et de la Chartreuse. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Josef Roth est l’aîné des deux enfants du député et chef de district Heinrich Roth (1889-1955) et de sa femme Gertrud née Ebert. Après le bac (1957, dont les dominantes sont latin, grec et hébreu), il entre comme novice chez les cisterciens et poursuit des études à l'institut de théologie et de philosophie de Heiligenkreuz (Sainte-Croix) près de Vienne. Il est ordonné prêtre en 1963 et travaille dans un premier temps auprès de la jeunesse, puis au collège de l'abbaye de Marienstatt (de), appartenant aux cisterciens. À partir de 1966, il étudie la biologie, la chimie et la physique et passe les examens d'habilitation à enseigner. Il enseigne ensuite dans un lycée de Cologne. En outre il s'occupe de la pastorale des jeunes et des anciens de la paroisse. Le représentant du Land dans la circonscription de Cologne nomme le Père Roth comme directeur du département de la biologie dans le cadre de la formation des enseignants en 1991. Dès 1995, il exerce la profession de directeur d’études. En 1990, il passe une thèse à l’université de Nimègue (Pays-Bas) pour devenir docteur en sciences naturelles.
 </t>
@@ -542,10 +556,12 @@
           <t>Histoire et culture des cisterciens et des chartreux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ayant grandi dans l’ancienne zone française, son intérêt s’est vite éveillé pour l’histoire et la culture française. Cet intérêt s’est renforcé envers les ordres religieux. Ainsi, en 1963, il participa aux fouilles de l’abbaye de Morimond sur la tombe d’Otton de Freising. De 1973 à 2013, il a été rédacteur en chef du journal international spécialisé Cistercienser-Chronik [1]. Dans ce journal, il s’efforça d’avoir une réflexion critique sur les fondations monastiques émanant de Bourgogne et du Dauphiné et en particulier sur leurs filiations rhénanes. En analysant des chapiteaux gothiques, le Père Roth a entièrement fait l’inventaire de la sculpture monumentale végétale d'édifices médiévaux (comme à la cathédrale de Cologne, ou Altenberg) et l’a fait ressortir en histoire de l’art et en botanique. Ce faisant, il a su expliquer avec conviction ses conclusions à propos de l'architecture gothique des cathédrales françaises par le biais d'études détaillées minutieuses. Enfin, il essaya de faire revivre le souvenir d'un philosophe important du Moyen Âge, Alain de Lille (Alanus ab insulis, † 1203) dans l'espace germanophone par le biais de publications[2]. En 1979, il inaugura les congrès internationaux désormais annuels sur la recherche relative à l’ordre des Chartreux dans l’ancienne chartreuse de Cologne[3]. 
-D’autres publications sur les conditions géographiques des fondations monastiques médiévales et sur les paysages ruraux monastiques et les jardins de monastères ont été estimées comme étant « excellemment exploitables »[4]. Sa première œuvre sur l'abbaye cistercienne de Marienstatt (Zisterzienserabtei Marienstatt, 1215) a tout de suite été considérée comme fondamentale[5]. Cette église tire ses origines de l’abbaye d'Himmerod en passant par celle d’Heisterbach, seule fondation personnelle de saint Bernard en Allemagne (1134). Roth a écrit des articles scientifiques sur les deux abbayes. Longtemps avant l’apparition de l‘informatique, il a élaboré[6] ou contribué[7] à des bibliographies spécialisées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant grandi dans l’ancienne zone française, son intérêt s’est vite éveillé pour l’histoire et la culture française. Cet intérêt s’est renforcé envers les ordres religieux. Ainsi, en 1963, il participa aux fouilles de l’abbaye de Morimond sur la tombe d’Otton de Freising. De 1973 à 2013, il a été rédacteur en chef du journal international spécialisé Cistercienser-Chronik . Dans ce journal, il s’efforça d’avoir une réflexion critique sur les fondations monastiques émanant de Bourgogne et du Dauphiné et en particulier sur leurs filiations rhénanes. En analysant des chapiteaux gothiques, le Père Roth a entièrement fait l’inventaire de la sculpture monumentale végétale d'édifices médiévaux (comme à la cathédrale de Cologne, ou Altenberg) et l’a fait ressortir en histoire de l’art et en botanique. Ce faisant, il a su expliquer avec conviction ses conclusions à propos de l'architecture gothique des cathédrales françaises par le biais d'études détaillées minutieuses. Enfin, il essaya de faire revivre le souvenir d'un philosophe important du Moyen Âge, Alain de Lille (Alanus ab insulis, † 1203) dans l'espace germanophone par le biais de publications. En 1979, il inaugura les congrès internationaux désormais annuels sur la recherche relative à l’ordre des Chartreux dans l’ancienne chartreuse de Cologne. 
+D’autres publications sur les conditions géographiques des fondations monastiques médiévales et sur les paysages ruraux monastiques et les jardins de monastères ont été estimées comme étant « excellemment exploitables ». Sa première œuvre sur l'abbaye cistercienne de Marienstatt (Zisterzienserabtei Marienstatt, 1215) a tout de suite été considérée comme fondamentale. Cette église tire ses origines de l’abbaye d'Himmerod en passant par celle d’Heisterbach, seule fondation personnelle de saint Bernard en Allemagne (1134). Roth a écrit des articles scientifiques sur les deux abbayes. Longtemps avant l’apparition de l‘informatique, il a élaboré ou contribué à des bibliographies spécialisées.
 Le Père Roth a lancé et accompagné scientifiquement des expositions sur les cisterciens : Ordensleben zwischen Ideal und Wirklichkeit (Les ordres entre perfection et réalité) (Aix-la-Chapelle, 1980) et Rheinische Zisterzienser im Spiegel der Buchkunst (les cisterciens rhénans dans le miroir de l’art du livre) (Mayence, 1998/99). Cette dernière a vu le jour grâce à la coopération du parlement du Land de Rhénanie-Palatinat, Mayence avec le Conseil régional de Bourgogne, de Dijon. Il a également organisé les expositions « Pflanzenwelt des Kölner Domes» (l’univers végétal de la cathédrale de Cologne) dans le jardin botanique et sur le forum de la cathédrale de Cologne (1989), « 500 Jahre Brasilien - Vom Rhein nach Rio. Rheinische Beiträge zur Erschließung des Landes » (Les 500 ans du Brésil, du Rhin à Rio. Contributions rhénanes à l'ouverture du land) dans la représentation du land de Rhénanie-Palatinat sur Bonn (2000). De plus, il contribua aux associations « Männerbande - Männerbünde. Zur Rolle des Mannes im Kulturvergleich » (Sur le rôle de l’homme par rapport à la culture) (musée Rautenstrauch-Joest-Museum Cologne 1990) et « Die Kölner Kartause um 1500 » (La chartreuse de Cologne en 1500) (Musée Stadtmuseum Köln à Cologne en 1991).
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Histoire et impacts culturels des sciences naturelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fort de sa propre expérience, Roth s’est intensément penché sur la tension entre la théologie et les sciences naturelles, notamment dans le cadre de la Deutsche Gesellschaft für Geschichte und Theorie der Biologie (DGGTB), dont il est membre fondateur. Il a travaillé sur la vie et l'œuvre de naturalistes et de philosophes des Lumières ecclésiastiques, comme Charles Plumier et Jean Meslier.   
 Sa collaboration au sein du groupe de chercheurs « Klostermedizin (médecine monastique) » de l’université de Wurtzbourg ou le projet qu’il a lancé et accompagné sous le nom de « Klösterliche Kulturlandschaftsforschung (recherche monastique rurale) » du centre pour l’art des jardins et l’architecture des paysages de l’université Leibniz de Hanovre correspond à une orientation interdisciplinaire. En outre, il a publié des papiers sur l’histoire naturelle du Rhin-Moyen ainsi que sur la situation d’établissement géographique de monastères moyenâgeux en Allemagne et en France. 
@@ -608,7 +626,9 @@
           <t>Commissions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Père Roth a été appelé ou choisi pour de nombreuses fonctions et commissions, par ex. la commission historique pour le Nassau (Archives hessoises de la capitale de Wiesbaden, depuis 1978), la fondation NRW pour la protection de la nature, la promotion régionale et culturelle (Düsseldorf, 1994-2000), la fondation Histoire de la protection de la nature (Königswinter, 1997–2012), curatorium de la fondation Namen-Jesu-Kirche à Bonn (depuis 2013).
 </t>
@@ -639,7 +659,9 @@
           <t>Entretien de monuments et protection du paysage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Roth est très actif dans la protection de la nature et a occupé des fonctions de dirigeant au sein d’ONG, comme par ex. «Landesgemeinschaft Naturschutz und Umwelt NRW (Communauté fédérale de la protection de la nature et de l’environnement en NRW)» (président de 1982 à 2000), du Deutscher Wanderverband (association allemande de randonnée) (intervenant sur la protection de la nature de 1998 à 2005). Depuis 1975 il est membre permanent de conseils paysagers au niveau communal et du land (NRW 1993-98). En tant que leur délégué, il participa à la Conférence Mondiale des Organisations Non Gouvernementales (Paris 1991).
 </t>
@@ -670,7 +692,9 @@
           <t>Didactique et pédagogie, nature du musée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Père Roth a fait tout son possible du point de vue de l'édition, pour transmettre des connaissances que tout le monde peut comprendre. Ses propres expériences d'enseignement se sont glissées dans différents supports d'enseignement et d'apprentissage, comme c'est le cas pour «Ethik im Biologieunterricht (l’éthique dans l’enseignement de la biologie)» (Cologne : Aulis-Deubner, 1992), pour la « Erdwissenschaften und Biologie-Didaktik (géologie et la didactique en biologie) » (Krefeld 2001) ou pour une boîte d'expériences en «écologie» pour les élèves (Cologne : Leybold, 1986).
 </t>
@@ -701,7 +725,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Josef Roth a plusieurs fois reçu des prix : entre autres celui de la bourse d’études Albert-Steeger de l’association régionale de Rhénanie (1979), le Rheinlandtaler (1998), le prix de la fondation de l’environnement du land de Rhénanie-Palatinat (2001), la Bundesverdienstkreuz (croix fédérale du Mérite) (2006), l’ordre du mérite du land de Rhénanie-du-Nord-Westphalie (2013).
 </t>
